--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Inventory\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA00AB1-C04B-4B78-8551-5A94C4279503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB305C-FD32-4AAC-A003-5BC2ABDC67A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
   <si>
     <t>SL. No</t>
   </si>
@@ -157,9 +157,6 @@
     <t>It gets displayed the Results</t>
   </si>
   <si>
-    <t>1.It shows Est.value at count, No.of items and Below par                                    2.Add SKU, Export, SKU, Supplier, UOM, Par level, Last count, Adjustment, Incoming, Received, Est.value and Actions                                          3.New stock count and Record adjustment</t>
-  </si>
-  <si>
     <t>Outlets -&gt; SKU-&gt; Actions</t>
   </si>
   <si>
@@ -592,6 +589,328 @@
   </si>
   <si>
     <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Est.value at count, No.of items and Below par'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                    2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search SKU, All suppliers, Status, Search, Add SKU, Export, SKU, Supplier, UOM, Par level, Last count, Adjustment, Incoming, Received, Est.value and Actions                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New stock count and Record adjustment</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU(New implementation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New button at the top </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New stock count,Adjustment and Consumption report</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Export"(New implementation)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Columns should exported in excel Product name
+*Supplier name
+*Custom product name
+*Custom product code
+*Stock unit
+*Est unit price (SGD)
+*Par level
+*Below par level
+*Previous qty (remove)
+*Incoming qty (qty ordered AFTER "last count")
+*Adjustments (total adjustments recorded AFTER "last count")
+*Last count (renamed from “End qty”)
+*Total value (SGD)
+*Est consumption (remove)Total est consumption (SGD) (remove)
+</t>
+  </si>
+  <si>
+    <r>
+      <t>New feature will be changed to exclude                                                              1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Adjustment" and "Incoming"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from before the latest stock count
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Consumption qty" and "consumption value"</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment(new implement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the pop up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Count date" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">calender </t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Consumption report It will goes to Consumption report page</t>
+  </si>
+  <si>
+    <t>It gets displayed "Inventory list, Date range(Start date - End date) and Show report"</t>
+  </si>
+  <si>
+    <t>If we click the Inventory list dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the List and Select all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select from the Inventory list and Date </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Report and stock count"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed($)   2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stock count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Date, List, Created by, Est. value</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment(new implement)</t>
+  </si>
+  <si>
+    <t>Once click the Record Adjustment When user clicks the amount in "Adjustment" column (in both "SKU" and "Consumption" tabs), the "Adjustment" modal will also show "Reason" column in each row.</t>
+  </si>
+  <si>
+    <t>Gets displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once select the count date and click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Star stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', it displayed the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'New stock count'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen                                                  *It display Calendar try on th top Grey colour and there is a new "As of" date which is the "Stock count date"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -700,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -725,6 +1044,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1345,7 @@
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" customWidth="1"/>
     <col min="5" max="5" width="61.85546875" customWidth="1"/>
-    <col min="6" max="6" width="48.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1050,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1064,7 +1389,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1073,99 +1398,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1176,19 +1493,19 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1199,19 +1516,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1222,111 +1539,111 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>12</v>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1336,20 +1653,20 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1359,20 +1676,18 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1383,19 +1698,19 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1406,10 +1721,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>46</v>
@@ -1418,7 +1733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1429,19 +1744,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1452,19 +1767,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1475,19 +1790,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1498,19 +1813,19 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1521,15 +1836,174 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB305C-FD32-4AAC-A003-5BC2ABDC67A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C1E7C-A5C2-485A-8A99-C3D6DD683137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>SL. No</t>
   </si>
@@ -194,22 +194,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Add stock adjustment, Edit settings and Remove from list'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Select </t>
     </r>
     <r>
@@ -589,64 +573,6 @@
   </si>
   <si>
     <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.It shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Est.value at count, No.of items and Below par'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                    2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Search SKU, All suppliers, Status, Search, Add SKU, Export, SKU, Supplier, UOM, Par level, Last count, Adjustment, Incoming, Received, Est.value and Actions                                                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New stock count and Record adjustment</t>
-    </r>
   </si>
   <si>
     <t>Outlets -&gt; SKU(New implementation)</t>
@@ -911,6 +837,112 @@
       </rPr>
       <t xml:space="preserve"> screen                                                  *It display Calendar try on th top Grey colour and there is a new "As of" date which is the "Stock count date"</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Add stock adjustment, Edit settings, "Amend 'last count' quantity"(new implementation) and Remove from list'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Est.value at count, No.of items and Last counted on(new implemt)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                           2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search SKU, All suppliers, Status, Search, Add SKU, Export, SKU, Supplier, UOM, Par level, Last count, Adjustment, Incoming, Received, Est.value and Actions                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New stock count and Record adjustment</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets-&gt;SKU-&gt; Actions -&gt; 'Amend last count quantity'(new implement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the Actions dropdown </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Amend last count quantity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> New modal to let user enter a stock count amendment for the selected SKU</t>
+    </r>
+  </si>
+  <si>
+    <t>It should display the pop up Stock count amendemet page and Update stock count button(in green color)</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1409,10 +1441,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1430,13 +1462,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1451,13 +1483,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1472,13 +1504,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -1588,7 +1620,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -1611,7 +1643,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1634,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
@@ -1677,13 +1709,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -1701,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>15</v>
@@ -1721,13 +1753,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>11</v>
@@ -1744,90 +1776,85 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="G21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>12</v>
@@ -1839,18 +1866,18 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>12</v>
@@ -1862,33 +1889,33 @@
         <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>11</v>
@@ -1896,114 +1923,137 @@
     </row>
     <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="E28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="G28" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB305C-FD32-4AAC-A003-5BC2ABDC67A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA7C43-4C75-4D88-AB01-06BE5F4C49E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
   <si>
     <t>SL. No</t>
   </si>
@@ -690,7 +690,213 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Columns should exported in excel Product name
+    <r>
+      <t>New feature will be changed to exclude                                                              1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Adjustment" and "Incoming"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from before the latest stock count
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Consumption qty" and "consumption value"</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment(new implement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the pop up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Count date" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">calender </t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Consumption report It will goes to Consumption report page</t>
+  </si>
+  <si>
+    <t>If we click the Inventory list dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select from the Inventory list and Date </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Report and stock count"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed($)   2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stock count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Date, List, Created by, Est. value</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment(new implement)</t>
+  </si>
+  <si>
+    <t>Once click the Record Adjustment When user clicks the amount in "Adjustment" column (in both "SKU" and "Consumption" tabs), the "Adjustment" modal will also show "Reason" column in each row.</t>
+  </si>
+  <si>
+    <t>Gets displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once select the count date and click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Star stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', it displayed the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'New stock count'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen                                                  *It display Calendar try on th top Grey colour and there is a new "As of" date which is the "Stock count date"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed "Inventory list, Date range(Start date - End date) and Show report, Export, Report and Stock count"</t>
+  </si>
+  <si>
+    <t>It displayed the List and Select All/Unselect All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columns should exported in excel, Product name
 *Supplier name
 *Custom product name
 *Custom product code
@@ -705,212 +911,6 @@
 *Total value (SGD)
 *Est consumption (remove)Total est consumption (SGD) (remove)
 </t>
-  </si>
-  <si>
-    <r>
-      <t>New feature will be changed to exclude                                                              1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Adjustment" and "Incoming"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from before the latest stock count
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Consumption qty" and "consumption value"</t>
-    </r>
-  </si>
-  <si>
-    <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment(new implement)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In the pop up </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Count date" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">calender </t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Consumption report It will goes to Consumption report page</t>
-  </si>
-  <si>
-    <t>It gets displayed "Inventory list, Date range(Start date - End date) and Show report"</t>
-  </si>
-  <si>
-    <t>If we click the Inventory list dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the List and Select all </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select from the Inventory list and Date </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Report and stock count"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                          1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Report </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed($)   2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stock count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Date, List, Created by, Est. value</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment(new implement)</t>
-  </si>
-  <si>
-    <t>Once click the Record Adjustment When user clicks the amount in "Adjustment" column (in both "SKU" and "Consumption" tabs), the "Adjustment" modal will also show "Reason" column in each row.</t>
-  </si>
-  <si>
-    <t>Gets displayed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once select the count date and click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Star stock count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', it displayed the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'New stock count'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> screen                                                  *It display Calendar try on th top Grey colour and there is a new "As of" date which is the "Stock count date"</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1417,9 @@
       <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1433,12 +1435,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1454,12 +1458,14 @@
         <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1475,12 +1481,14 @@
         <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1680,12 +1688,14 @@
         <v>72</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1744,13 +1754,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
@@ -1905,15 +1915,17 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA7C43-4C75-4D88-AB01-06BE5F4C49E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A2E5C6-7281-473A-96AC-D9F13ABE1622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
   <si>
     <t>SL. No</t>
   </si>
@@ -755,15 +755,6 @@
       </rPr>
       <t xml:space="preserve">calender </t>
     </r>
-  </si>
-  <si>
-    <t>Once click the Consumption report It will goes to Consumption report page</t>
-  </si>
-  <si>
-    <t>If we click the Inventory list dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select from the Inventory list and Date </t>
   </si>
   <si>
     <r>
@@ -911,6 +902,146 @@
 *Total value (SGD)
 *Est consumption (remove)Total est consumption (SGD) (remove)
 </t>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UOM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,it shows "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activity and Settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" and once click on the Date </t>
+    </r>
+  </si>
+  <si>
+    <t>Once hit on the date it displayed the Stock count page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Stock count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">here add one more tags as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Add tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,select the add tag and save</t>
+    </r>
+  </si>
+  <si>
+    <t>It should displayed "Custom tags updated successfully", and on the top it shows tag name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU(new)</t>
+  </si>
+  <si>
+    <t>If we click the Inventory list dropdown and select from the list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Select from the Inventory list and Date ,select the date                          2.Select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Tag "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check box it shows dropdown list </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consumption report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It will goes to Consumption report page</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1332,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,10 +1566,10 @@
         <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1458,10 +1589,10 @@
         <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1481,10 +1612,10 @@
         <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1691,7 +1822,7 @@
         <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
@@ -1760,7 +1891,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
@@ -1915,13 +2046,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>11</v>
@@ -2017,6 +2148,46 @@
       </c>
       <c r="G29" s="10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A2E5C6-7281-473A-96AC-D9F13ABE1622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F16A8-56D3-462C-9186-44B0C1CE1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,6 +957,90 @@
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Stock count</t>
   </si>
   <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU(new)</t>
+  </si>
+  <si>
+    <t>If we click the Inventory list dropdown and select from the list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Select from the Inventory list and Date ,select the date                          2.Select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Tag "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check box it shows dropdown list </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consumption report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It will goes to Consumption report page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom tags updated successfully"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and on the top it shows tag name</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">here add one more tags as </t>
     </r>
@@ -979,68 +1063,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ,select the add tag and save</t>
-    </r>
-  </si>
-  <si>
-    <t>It should displayed "Custom tags updated successfully", and on the top it shows tag name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU(new)</t>
-  </si>
-  <si>
-    <t>If we click the Inventory list dropdown and select from the list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Select from the Inventory list and Date ,select the date                          2.Select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Tag "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> check box it shows dropdown list </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Consumption report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> It will goes to Consumption report page</t>
+      <t xml:space="preserve"> ,select the add tag and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
     </r>
   </si>
 </sst>
@@ -1465,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1600,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>81</v>
@@ -1589,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>82</v>
@@ -1612,7 +1646,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>76</v>
@@ -2161,7 +2195,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>84</v>
@@ -2184,10 +2218,10 @@
         <v>86</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F16A8-56D3-462C-9186-44B0C1CE1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33898339-57B2-47CD-A592-4601ACFCC3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
   <si>
     <t>SL. No</t>
   </si>
@@ -393,9 +393,6 @@
     <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
   </si>
   <si>
-    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
   </si>
   <si>
@@ -672,21 +669,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>New stock count,Adjustment and Consumption report</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Export"(New implementation)</t>
     </r>
   </si>
   <si>
@@ -728,9 +710,6 @@
     </r>
   </si>
   <si>
-    <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment(new implement)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">In the pop up </t>
     </r>
@@ -823,12 +802,6 @@
       </rPr>
       <t>: Date, List, Created by, Est. value</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment(new implement)</t>
-  </si>
-  <si>
-    <t>Once click the Record Adjustment When user clicks the amount in "Adjustment" column (in both "SKU" and "Consumption" tabs), the "Adjustment" modal will also show "Reason" column in each row.</t>
   </si>
   <si>
     <t>Gets displayed</t>
@@ -1077,12 +1050,56 @@
       <t>Save</t>
     </r>
   </si>
+  <si>
+    <t>When recording an adjustment, if "Transfer out" is selected as the reason, a checkbox ("Transfer to") with a dropdown to select the destination outlet is displayed below.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, To checkbox(new),Notes and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out(new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, From checkbox(new),Notes and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t>In From checkout select location dropdown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,6 +1133,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1184,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1215,6 +1238,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1497,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1574,10 +1600,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1597,13 +1623,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1620,13 +1646,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1643,13 +1669,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1761,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -1784,7 +1810,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1850,13 +1876,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
@@ -1896,10 +1922,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>46</v>
@@ -1919,13 +1945,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
@@ -2057,10 +2083,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>51</v>
@@ -2080,19 +2106,17 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2103,19 +2127,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2126,19 +2150,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2149,19 +2173,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2172,19 +2196,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2195,13 +2219,16 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2215,13 +2242,33 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33898339-57B2-47CD-A592-4601ACFCC3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF8B72D-866C-42E0-AA80-425ACF39EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1525,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF8B72D-866C-42E0-AA80-425ACF39EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38ACA3-3F20-4049-B6FF-C0C1DEE14BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
   <si>
     <t>SL. No</t>
   </si>
@@ -644,9 +644,6 @@
       </rPr>
       <t>New stock count and Record adjustment</t>
     </r>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU(New implementation)</t>
   </si>
   <si>
     <r>
@@ -1093,6 +1090,38 @@
   </si>
   <si>
     <t>In From checkout select location dropdown</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt;Consumption report</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt;Consumption report(New)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To display these columns, user has to select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Show/hide columns"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and select the columns to be displayed or hidden.                                         *Below the Report "Show/hide colums " Once click the Show/hide colums it shows list of consumption report and Save</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1523,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1623,13 +1652,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1646,13 +1675,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1669,42 +1698,38 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1715,19 +1740,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1738,19 +1763,19 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1761,19 +1786,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1784,19 +1809,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1810,7 +1835,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1819,7 +1844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1833,10 +1858,10 @@
         <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
@@ -1846,26 +1871,26 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1878,17 +1903,17 @@
       <c r="D15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>71</v>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1898,20 +1923,20 @@
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>36</v>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1922,19 +1947,19 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1948,16 +1973,16 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1968,19 +1993,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1991,19 +2016,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2014,19 +2039,19 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2040,16 +2065,16 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2063,16 +2088,16 @@
         <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2083,13 +2108,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>11</v>
@@ -2106,17 +2131,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2127,19 +2154,17 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2150,19 +2175,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2173,19 +2198,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2196,19 +2221,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2219,19 +2244,19 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2242,13 +2267,16 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2265,10 +2293,36 @@
         <v>81</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>86</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38ACA3-3F20-4049-B6FF-C0C1DEE14BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3324BD31-0A12-4249-A266-CCBD787A860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>SL. No</t>
   </si>
@@ -265,22 +265,6 @@
   </si>
   <si>
     <t>It will display the SKU list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown and start stock count</t>
-    </r>
   </si>
   <si>
     <r>
@@ -874,6 +858,228 @@
 </t>
   </si>
   <si>
+    <t>Once hit on the date it displayed the Stock count page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Stock count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU(new)</t>
+  </si>
+  <si>
+    <t>If we click the Inventory list dropdown and select from the list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Select from the Inventory list and Date ,select the date                          2.Select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Tag "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check box it shows dropdown list </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consumption report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It will goes to Consumption report page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom tags updated successfully"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and on the top it shows tag name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">here add one more tags as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Add tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,select the add tag and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+  </si>
+  <si>
+    <t>When recording an adjustment, if "Transfer out" is selected as the reason, a checkbox ("Transfer to") with a dropdown to select the destination outlet is displayed below.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, To checkbox(new),Notes and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out(new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, From checkbox(new),Notes and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t>In From checkout select location dropdown</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt;Consumption report</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt;Consumption report(New)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To display these columns, user has to select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Show/hide columns"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and select the columns to be displayed or hidden.                                         *Below the Report "Show/hide colums " Once click the Show/hide colums it shows list of consumption report and Save</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Only selected columns the Show/hide colums</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown, Count date and start stock count</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Click on the</t>
     </r>
@@ -917,210 +1123,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">" and once click on the Date </t>
-    </r>
-  </si>
-  <si>
-    <t>Once hit on the date it displayed the Stock count page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Stock count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU(new)</t>
-  </si>
-  <si>
-    <t>If we click the Inventory list dropdown and select from the list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Select from the Inventory list and Date ,select the date                          2.Select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Tag "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> check box it shows dropdown list </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Consumption report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> It will goes to Consumption report page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It should displayed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom tags updated successfully"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, and on the top it shows tag name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">here add one more tags as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Add tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,select the add tag and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save</t>
-    </r>
-  </si>
-  <si>
-    <t>When recording an adjustment, if "Transfer out" is selected as the reason, a checkbox ("Transfer to") with a dropdown to select the destination outlet is displayed below.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, To checkbox(new),Notes and Save"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out(new)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, From checkbox(new),Notes and Save"</t>
-    </r>
-  </si>
-  <si>
-    <t>In From checkout select location dropdown</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU-&gt;Consumption report</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU-&gt;Consumption report(New)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To display these columns, user has to select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Show/hide columns"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and select the columns to be displayed or hidden.                                         *Below the Report "Show/hide colums " Once click the Show/hide colums it shows list of consumption report and Save</t>
+      <t xml:space="preserve">" page and once click on the Date </t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed successfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the top SKU name below it shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Inventory list: . Supplier: Outlet name"</t>
     </r>
   </si>
 </sst>
@@ -1552,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:G33"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1632,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1652,13 +1674,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1675,13 +1697,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1698,13 +1720,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1721,13 +1743,17 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1835,7 +1861,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1858,7 +1884,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>10</v>
@@ -1927,10 +1953,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
@@ -1970,13 +1996,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
@@ -1993,13 +2019,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>11</v>
@@ -2016,10 +2042,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>29</v>
@@ -2039,7 +2065,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>37</v>
@@ -2065,7 +2091,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>35</v>
@@ -2088,10 +2114,10 @@
         <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>11</v>
@@ -2111,10 +2137,10 @@
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>11</v>
@@ -2131,13 +2157,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>11</v>
@@ -2154,13 +2180,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -2175,13 +2201,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>11</v>
@@ -2198,13 +2224,13 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>11</v>
@@ -2221,13 +2247,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>11</v>
@@ -2244,13 +2270,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>11</v>
@@ -2267,19 +2293,19 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="G31" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2290,19 +2316,19 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2313,15 +2339,38 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3324BD31-0A12-4249-A266-CCBD787A860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6AF80A-C3D1-44E2-91ED-847D21126A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
   <si>
     <t>SL. No</t>
   </si>
@@ -988,6 +988,12 @@
     <t>When recording an adjustment, if "Transfer out" is selected as the reason, a checkbox ("Transfer to") with a dropdown to select the destination outlet is displayed below.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out(new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
     </r>
@@ -1000,149 +1006,143 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, From checkbox(new),Notes and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t>In From checkout select location dropdown</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt;Consumption report</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt;Consumption report(New)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To display these columns, user has to select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Show/hide columns"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and select the columns to be displayed or hidden.                                         *Below the Report "Show/hide colums " Once click the Show/hide colums it shows list of consumption report and Save</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Only selected columns the Show/hide colums</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown, Count date and start stock count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UOM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,it shows "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activity and Settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" page and once click on the Date </t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed successfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the top SKU name below it shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Inventory list: . Supplier: Outlet name"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note : In 2 outlets should have the same SKU then we can adjust the Transfer out/Transfer in, By clicking Record adjustment ,it shows pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, To checkbox(new),Notes and Save"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out(new)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Item name dropdown, Inventory list, UOM, Quantity, Reason, From checkbox(new),Notes and Save"</t>
-    </r>
-  </si>
-  <si>
-    <t>In From checkout select location dropdown</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU-&gt;Consumption report</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU-&gt;Consumption report(New)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To display these columns, user has to select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Show/hide columns"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and select the columns to be displayed or hidden.                                         *Below the Report "Show/hide colums " Once click the Show/hide colums it shows list of consumption report and Save</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Only selected columns the Show/hide colums</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown, Count date and start stock count</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> UOM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,it shows "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Activity and Settings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" page and once click on the Date </t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed successfully</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On the top SKU name below it shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Inventory list: . Supplier: Outlet name"</t>
     </r>
   </si>
 </sst>
@@ -1187,8 +1187,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF172B4D"/>
+      <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1576,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>82</v>
@@ -1697,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>80</v>
@@ -1720,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>81</v>
@@ -1743,13 +1742,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -2091,7 +2090,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>35</v>
@@ -2146,7 +2145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2157,10 +2156,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>50</v>
@@ -2180,17 +2179,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>79</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>77</v>
@@ -2342,10 +2343,10 @@
         <v>79</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>11</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33898339-57B2-47CD-A592-4601ACFCC3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD3E1F-FA8D-417C-8033-136389E9EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,22 +268,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown and start stock count</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
     </r>
     <r>
@@ -1093,6 +1077,22 @@
   </si>
   <si>
     <t>In From checkout select location dropdown</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown, Count date(By default select the todays date) and start stock count</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1600,10 +1600,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1623,13 +1623,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1646,13 +1646,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1669,13 +1669,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1787,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -1810,7 +1810,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1879,10 +1879,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
@@ -1922,13 +1922,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>11</v>
@@ -1945,13 +1945,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
@@ -1968,10 +1968,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>29</v>
@@ -1991,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
@@ -2017,7 +2017,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>35</v>
@@ -2040,10 +2040,10 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>11</v>
@@ -2063,10 +2063,10 @@
         <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>11</v>
@@ -2083,13 +2083,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>11</v>
@@ -2106,13 +2106,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -2127,13 +2127,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>11</v>
@@ -2150,13 +2150,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>11</v>
@@ -2173,13 +2173,13 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>11</v>
@@ -2196,13 +2196,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>11</v>
@@ -2219,13 +2219,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>11</v>
@@ -2242,13 +2242,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2262,13 +2262,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CFED14-5E4C-47C7-98EA-41729F89A796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500AB764-3BB1-47C9-B631-2DE1DA3CEB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500AB764-3BB1-47C9-B631-2DE1DA3CEB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48652ACA-34CA-475B-B815-C9BD9A047B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
   <si>
     <t>SL. No</t>
   </si>
@@ -284,56 +284,6 @@
   </si>
   <si>
     <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it shows Update stock count? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save stock count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,after clicking it returns back to SKU screen</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the SKU page </t>
   </si>
   <si>
     <t>Save and update the Add stock adjustment</t>
@@ -1054,9 +1004,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out(new)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
   </si>
   <si>
@@ -1093,6 +1040,52 @@
       </rPr>
       <t>Outlet dropdown, Inventory list dropdown, Count date(By default select the todays date) and start stock count</t>
     </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt;New stock count(new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.User can still save the stock count and automatically fill in all fields with '0' if wanted.                                                                                                       2.Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save stock count and Yes, Save            </t>
+    </r>
+  </si>
+  <si>
+    <t>If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
   </si>
 </sst>
 </file>
@@ -1523,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1573,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1600,10 +1593,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1623,13 +1616,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1646,13 +1639,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1669,13 +1662,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1787,7 +1780,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -1810,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1879,10 +1872,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
@@ -1922,19 +1915,19 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1945,13 +1938,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>11</v>
@@ -1968,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>29</v>
@@ -1991,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
@@ -2017,7 +2010,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>35</v>
@@ -2026,7 +2019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2049,7 +2042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2060,19 +2053,15 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2083,17 +2072,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>11</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2106,17 +2091,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2127,19 +2114,17 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="14" t="s">
         <v>87</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2150,19 +2135,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2173,19 +2158,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="G28" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2196,19 +2181,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="G29" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2219,19 +2204,19 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2242,16 +2227,19 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2262,13 +2250,33 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48652ACA-34CA-475B-B815-C9BD9A047B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8295983A-8076-4FBB-A64E-C0EBA4131A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
   <si>
     <t>SL. No</t>
   </si>
@@ -1086,6 +1086,12 @@
   </si>
   <si>
     <t>If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <t>It gets displayed the pop up as expected</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,8 +2064,12 @@
       <c r="E23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2077,8 +2087,12 @@
       <c r="E24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2122,7 +2136,9 @@
       <c r="F26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -2258,8 +2274,11 @@
       <c r="F32" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2277,6 +2296,9 @@
       </c>
       <c r="F33" s="9" t="s">
         <v>83</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8295983A-8076-4FBB-A64E-C0EBA4131A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EFBA8A-99A2-48C5-9A11-9B60C385F6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>SL. No</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
   </si>
   <si>
     <t xml:space="preserve">1.Add to list screen, shows SKU name search box, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM,               2.Add to list screen displayed ,select check box and click Done                      </t>
@@ -1048,6 +1045,67 @@
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out</t>
   </si>
   <si>
+    <t>If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
+  </si>
+  <si>
+    <t>It gets displayed the pop up as expected</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU &gt;Consumption report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is a new "Select most recent date range" button next to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field. When clicked, it automatically fills in the start and end dates with the two most recent selectable dates from the calendar picker.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It will shows Adjustment record page like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                 2. Click Save ,Toaster message is Inventory added                               </t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1.User can still save the stock count and automatically fill in all fields with '0' if wanted.                                                                                                       2.Click the </t>
     </r>
@@ -1081,17 +1139,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Save stock count and Yes, Save            </t>
-    </r>
-  </si>
-  <si>
-    <t>If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
-  </si>
-  <si>
-    <t>It gets displayed the as expected</t>
-  </si>
-  <si>
-    <t>It gets displayed the pop up as expected</t>
+      <t xml:space="preserve">Save stock count and Yes, Save                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.Next to Cancel ,user can click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save as Draft'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button at the buttom of the screen  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Save as draft, dialog box will appear Previously saved draft available and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Use draft and Start new stock count" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It gets displayed the as expected</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1206,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1226,17 +1343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1522,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1599,10 +1706,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1622,13 +1729,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1645,13 +1752,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1668,42 +1775,38 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1714,19 +1817,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1737,19 +1840,19 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1760,19 +1863,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1783,19 +1886,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1818,7 +1921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1832,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
@@ -1845,26 +1948,26 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1877,17 +1980,17 @@
       <c r="D15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>68</v>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1897,20 +2000,20 @@
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1921,19 +2024,19 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1944,19 +2047,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1967,19 +2070,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1990,19 +2093,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2013,19 +2116,19 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2039,16 +2142,16 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2059,19 +2162,19 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2082,19 +2185,17 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2105,15 +2206,15 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2128,19 +2229,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2151,19 +2252,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2174,19 +2275,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2197,19 +2298,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2220,19 +2321,19 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2243,19 +2344,19 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2266,19 +2367,19 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2291,13 +2392,36 @@
       <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="F34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EFBA8A-99A2-48C5-9A11-9B60C385F6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A27771B-0B4B-411F-BBD6-3B90745789A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
   <si>
     <t>SL. No</t>
   </si>
@@ -1055,7 +1055,159 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">There is a new "Select most recent date range" button next to the </t>
+      <t xml:space="preserve">1.It will shows Adjustment record page like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                 2. Click Save ,Toaster message is Inventory added                               </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.User can still save the stock count and automatically fill in all fields with '0' if wanted.                                                                                                       2.Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save stock count and Yes, Save                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.Next to Cancel ,user can click '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save as Draft'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button at the buttom of the screen  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Save as draft, dialog box will appear Previously saved draft available and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Use draft and Start new stock count" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It gets displayed the as expected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is a new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select most recent date range"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button next to the </t>
     </r>
     <r>
       <rPr>
@@ -1080,135 +1232,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.It will shows Adjustment record page like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                 2. Click Save ,Toaster message is Inventory added                               </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.User can still save the stock count and automatically fill in all fields with '0' if wanted.                                                                                                       2.Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save stock count and Yes, Save                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.Next to Cancel ,user can click '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save as Draft'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button at the buttom of the screen  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Save as draft, dialog box will appear Previously saved draft available and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Use draft and Start new stock count" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It gets displayed the as expected</t>
-    </r>
+    <t>It gets displayed Select most recent date range once we select the Inventory list</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1801,10 +1825,14 @@
         <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2050,7 +2078,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>43</v>
@@ -2188,10 +2216,10 @@
         <v>90</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G24" s="6"/>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A27771B-0B4B-411F-BBD6-3B90745789A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3232E-7252-407D-9FA9-49D9F11BD12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,74 +667,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Report and stock count"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                          1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Report </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed($)   2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stock count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Date, List, Created by, Est. value</t>
-    </r>
-  </si>
-  <si>
     <t>Gets displayed</t>
   </si>
   <si>
@@ -1233,6 +1165,116 @@
   </si>
   <si>
     <t>It gets displayed Select most recent date range once we select the Inventory list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Report and stock count"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">($)             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>below this</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eye icon Show/hide columns                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stock count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Date, List, Created by, Est. value</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1655,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,13 +1795,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1776,13 +1818,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1799,13 +1841,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1825,10 +1867,10 @@
         <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -2035,7 +2077,7 @@
         <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
@@ -2078,7 +2120,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>43</v>
@@ -2104,7 +2146,7 @@
         <v>68</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>11</v>
@@ -2170,7 +2212,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>35</v>
@@ -2213,13 +2255,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -2234,13 +2276,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>11</v>
@@ -2257,10 +2299,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>48</v>
@@ -2280,13 +2322,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>11</v>
@@ -2306,10 +2348,10 @@
         <v>47</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>11</v>
@@ -2418,13 +2460,13 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
@@ -2441,13 +2483,13 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>11</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3232E-7252-407D-9FA9-49D9F11BD12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C539247-BAA7-4A79-BFD5-41057F6B62A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>SL. No</t>
   </si>
@@ -265,25 +265,6 @@
   </si>
   <si>
     <t>It will display the SKU list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock count page</t>
-    </r>
-  </si>
-  <si>
-    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
   </si>
   <si>
     <t>Save and update the Add stock adjustment</t>
@@ -977,12 +958,6 @@
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out</t>
   </si>
   <si>
-    <t>If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
-  </si>
-  <si>
-    <t>It gets displayed the pop up as expected</t>
-  </si>
-  <si>
     <t>Outlets -&gt; SKU &gt;Consumption report</t>
   </si>
   <si>
@@ -1013,70 +988,296 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.User can still save the stock count and automatically fill in all fields with '0' if wanted.                                                                                                       2.Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save stock count and Yes, Save                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.Next to Cancel ,user can click '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save as Draft'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button at the buttom of the screen  </t>
+      <t xml:space="preserve">Once click the Save as draft, dialog box will appear Previously saved draft available and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Use draft and Start new stock count" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It gets displayed the as expected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is a new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select most recent date range"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button next to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field. When clicked, it automatically fills in the start and end dates with the two most recent selectable dates from the calendar picker.</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed Select most recent date range once we select the Inventory list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Report and stock count"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">($)             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>below this</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eye icon Show/hide columns                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stock count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Date, List, Created by, Est. value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Outlet and Inventory and click</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Start stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,it goes to New </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock count page</t>
+    </r>
+  </si>
+  <si>
+    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty,Cancel and Done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.User can still save the stock count and Auto-fill with last count data with '0' if wanted.                                                                                                       2.Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Done button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it shows Are you sure? pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Yes,fill in blank fields &amp; Save                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -1091,190 +1292,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Once click the Save as draft, dialog box will appear Previously saved draft available and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Use draft and Start new stock count" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It gets displayed the as expected</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There is a new </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select most recent date range"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button next to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Date'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field. When clicked, it automatically fills in the start and end dates with the two most recent selectable dates from the calendar picker.</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed Select most recent date range once we select the Inventory list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Report and stock count"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                          1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Report </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">($)             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>below this</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Eye icon Show/hide columns                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stock count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Date, List, Created by, Est. value</t>
-    </r>
+    <t>3.Next to Cancel ,user can click 'Save as Draft' button at the buttom of the screen                                                                                                                                 If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
   </si>
 </sst>
 </file>
@@ -1697,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G25" sqref="F25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1775,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1795,13 +1813,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1818,13 +1836,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1841,13 +1859,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1864,13 +1882,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -1982,7 +2000,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -2005,7 +2023,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>10</v>
@@ -2074,10 +2092,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
@@ -2117,13 +2135,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>11</v>
@@ -2140,13 +2158,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>11</v>
@@ -2163,10 +2181,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>29</v>
@@ -2186,7 +2204,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>37</v>
@@ -2212,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>35</v>
@@ -2235,16 +2253,16 @@
         <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2255,17 +2273,17 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2276,17 +2294,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2299,13 +2313,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>11</v>
@@ -2322,13 +2336,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>11</v>
@@ -2345,13 +2359,13 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>11</v>
@@ -2368,13 +2382,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>11</v>
@@ -2391,13 +2405,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
@@ -2414,13 +2428,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
@@ -2437,13 +2451,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>11</v>
@@ -2460,13 +2474,13 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
@@ -2483,13 +2497,13 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>11</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C539247-BAA7-4A79-BFD5-41057F6B62A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B35B1D6-86EF-451E-AF61-27572ED55EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
   <si>
     <t>SL. No</t>
   </si>
@@ -1715,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G25" sqref="F25:G25"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2281,9 @@
       <c r="F24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B35B1D6-86EF-451E-AF61-27572ED55EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B55A52-3860-463E-B000-A0FDB8777284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
   <si>
     <t>SL. No</t>
   </si>
@@ -936,6 +936,267 @@
     <t>In From checkout select location dropdown</t>
   </si>
   <si>
+    <t>Outlets -&gt; SKU-&gt;New stock count(new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU &gt;Consumption report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It will shows Adjustment record page like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                 2. Click Save ,Toaster message is Inventory added                               </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Save as draft, dialog box will appear Previously saved draft available and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Use draft and Start new stock count" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It gets displayed the as expected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is a new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select most recent date range"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button next to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field. When clicked, it automatically fills in the start and end dates with the two most recent selectable dates from the calendar picker.</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed Select most recent date range once we select the Inventory list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Report and stock count"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">($)             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>below this</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eye icon Show/hide columns                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stock count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Date, List, Created by, Est. value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Outlet and Inventory and click</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Start stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,it goes to New </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock count page</t>
+    </r>
+  </si>
+  <si>
+    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty,Cancel and Done</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">it shows pop up page </t>
     </r>
@@ -948,273 +1209,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Outlet dropdown, Inventory list dropdown, Count date(By default select the todays date) and start stock count</t>
-    </r>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU-&gt;New stock count(new)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU &gt;Consumption report</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.It will shows Adjustment record page like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                 2. Click Save ,Toaster message is Inventory added                               </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Save as draft, dialog box will appear Previously saved draft available and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Use draft and Start new stock count" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It gets displayed the as expected</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There is a new </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select most recent date range"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button next to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Date'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field. When clicked, it automatically fills in the start and end dates with the two most recent selectable dates from the calendar picker.</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed Select most recent date range once we select the Inventory list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Report and stock count"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                          1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Report </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: it displayed SKU, UOM, Prev.qty, Purchased, Adjustments, End qty, Consumed(qty), Consumed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">($)             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>below this</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Eye icon Show/hide columns                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stock count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Date, List, Created by, Est. value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Select Outlet and Inventory and click</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Start stock count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,it goes to New </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock count page</t>
-    </r>
-  </si>
-  <si>
-    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty,Cancel and Done</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.User can still save the stock count and Auto-fill with last count data with '0' if wanted.                                                                                                       2.Click the </t>
+      <t>Outlet dropdown, Inventory list dropdown and start stock count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.Next to Cancel ,user can click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Save as Draft'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button at the buttom of the screen                                                                                                                                 If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed toastr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stock count Saved as draft successfully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On top below New stock count 'Count date calendar picker                               1.User can still save the stock count and Auto-fill with last count data with '0' if wanted.                                                                                                       2.Click the </t>
     </r>
     <r>
       <rPr>
@@ -1235,39 +1277,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">,it shows Are you sure? pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Yes,fill in blank fields &amp; Save                                                                    </t>
+      <t xml:space="preserve">,it shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Update stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save stock count                                                                 </t>
     </r>
     <r>
       <rPr>
@@ -1290,9 +1332,6 @@
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
-  </si>
-  <si>
-    <t>3.Next to Cancel ,user can click 'Save as Draft' button at the buttom of the screen                                                                                                                                 If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
   </si>
 </sst>
 </file>
@@ -1715,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>78</v>
@@ -1836,7 +1875,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>76</v>
@@ -1859,13 +1898,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1885,10 +1924,10 @@
         <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -2138,7 +2177,7 @@
         <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>41</v>
@@ -2230,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>35</v>
@@ -2253,16 +2292,16 @@
         <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="G23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2273,13 +2312,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>11</v>
@@ -2296,13 +2335,17 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2315,7 +2358,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>82</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B35B1D6-86EF-451E-AF61-27572ED55EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624866F1-C973-409D-A5FE-1A7B846B8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
   <si>
     <t>SL. No</t>
   </si>
@@ -1293,6 +1293,12 @@
   </si>
   <si>
     <t>3.Next to Cancel ,user can click 'Save as Draft' button at the buttom of the screen                                                                                                                                 If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory UOM next to each item’s quantity field will be hyperlinked (in blue) and there is a down chevron symbol next to it. The label and the chevron are clickable as a button.                                     *Once click the UOM,it shows list and qty field next to each UOM and click Save </t>
+  </si>
+  <si>
+    <t>Once edit UOM and qty and Save it gets dispalyed the updated result</t>
   </si>
 </sst>
 </file>
@@ -1713,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,10 +2307,14 @@
       <c r="E25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2315,13 +2325,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>11</v>
@@ -2338,19 +2348,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2361,19 +2371,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2384,19 +2394,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2407,19 +2417,19 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2430,19 +2440,19 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2453,19 +2463,19 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2476,19 +2486,19 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2499,15 +2509,38 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624866F1-C973-409D-A5FE-1A7B846B8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C133D72-5702-49F8-9ED7-E192FD848EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1721,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A6F6D1-350D-485A-9A43-5EDF1E88BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7D9D5-5D9B-4C95-8E5C-96027A2B938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
   <si>
     <t>SL. No</t>
   </si>
@@ -556,9 +556,6 @@
       </rPr>
       <t>New stock count and Record adjustment</t>
     </r>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU(New implementation)</t>
   </si>
   <si>
     <r>
@@ -1299,6 +1296,81 @@
   </si>
   <si>
     <t>Once edit UOM and qty and Save it gets dispalyed the updated result</t>
+  </si>
+  <si>
+    <r>
+      <t>they want to use</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Received' or 'Invoiced' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">quantity to replace the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Purchased'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quantity for the calculation on consumed quantity
+1. Depending on what user chose, the consumption report now contains new columns called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Received" and "Invoiced"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to show quantity received using the GRN feature/invoices dated within the selected date range.</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU &gt;Consumption report &gt; Received inventory(New)</t>
+  </si>
+  <si>
+    <t>If user click and select the columns  : The "Received" &amp; "Invoiced" columns are not visible by default, but can be made visible using one of the following methods: Using the "Show/hide columns" menu</t>
   </si>
 </sst>
 </file>
@@ -1719,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1819,13 +1891,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1842,13 +1914,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1865,13 +1937,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1888,65 +1960,57 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1957,19 +2021,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1980,19 +2044,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2003,19 +2067,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2026,19 +2090,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2052,62 +2116,62 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2117,20 +2181,20 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>36</v>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2140,20 +2204,20 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
+      <c r="D18" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2164,19 +2228,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2187,19 +2251,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2210,19 +2274,19 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2233,19 +2297,19 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2256,19 +2320,19 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2279,19 +2343,19 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2302,19 +2366,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2325,19 +2389,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2348,19 +2412,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2371,19 +2435,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2394,19 +2458,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2417,19 +2481,19 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2440,19 +2504,19 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2463,19 +2527,19 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2486,19 +2550,19 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2509,19 +2573,19 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2532,15 +2596,61 @@
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="E36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="F37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7D9D5-5D9B-4C95-8E5C-96027A2B938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C20E4-64AD-4CB4-8EA6-B55509487956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="105">
   <si>
     <t>SL. No</t>
   </si>
@@ -1371,6 +1371,12 @@
   </si>
   <si>
     <t>If user click and select the columns  : The "Received" &amp; "Invoiced" columns are not visible by default, but can be made visible using one of the following methods: Using the "Show/hide columns" menu</t>
+  </si>
+  <si>
+    <t>Selected checkout box will shown in the below columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once click the Show/hide columns it gets displayed the "Prev. qty(default checkbox selected), Purchased(default checkbox selected), Received, Invoiced, Adjustments(default checkbox selected), wastage, Promotion, Missing, Found, Transfer in, tRansfer out, End qty(default checkbox selected) and Save" </t>
   </si>
 </sst>
 </file>
@@ -1793,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,8 +1994,12 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2007,8 +2017,12 @@
       <c r="E9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C20E4-64AD-4CB4-8EA6-B55509487956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6446620-48EC-43BD-B84D-C356FBD04A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,12 +386,6 @@
     <t>It gets displayed "Clear ,Remove from inventory, Edit par level"</t>
   </si>
   <si>
-    <t>It displayed it return back to SKU page</t>
-  </si>
-  <si>
-    <t>It successfully removed from the list</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Check box-&gt;Edit par level</t>
   </si>
   <si>
@@ -1377,6 +1371,12 @@
   </si>
   <si>
     <t xml:space="preserve">Once click the Show/hide columns it gets displayed the "Prev. qty(default checkbox selected), Purchased(default checkbox selected), Received, Invoiced, Adjustments(default checkbox selected), wastage, Promotion, Missing, Found, Transfer in, tRansfer out, End qty(default checkbox selected) and Save" </t>
+  </si>
+  <si>
+    <t>It displayed it return back to SKU page.</t>
+  </si>
+  <si>
+    <t>It successfully removed from the list.</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1897,13 +1897,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
@@ -1920,13 +1920,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -1943,13 +1943,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
@@ -1966,13 +1966,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -1989,13 +1989,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
@@ -2012,13 +2012,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
@@ -2222,10 +2222,10 @@
         <v>31</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>11</v>
@@ -2265,10 +2265,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>41</v>
@@ -2288,13 +2288,13 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>35</v>
@@ -2383,10 +2383,10 @@
         <v>34</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>11</v>
@@ -2403,13 +2403,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>11</v>
@@ -2426,10 +2426,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>15</v>
@@ -2449,13 +2449,13 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>11</v>
@@ -2472,10 +2472,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>46</v>
@@ -2495,13 +2495,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
@@ -2521,10 +2521,10 @@
         <v>45</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
@@ -2567,10 +2567,10 @@
         <v>51</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
@@ -2590,10 +2590,10 @@
         <v>52</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>11</v>
@@ -2610,13 +2610,13 @@
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>11</v>
@@ -2633,13 +2633,13 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>11</v>
@@ -2656,13 +2656,13 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>11</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6446620-48EC-43BD-B84D-C356FBD04A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C82A0-A27D-4E16-B2C1-6F572B5E84CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
   <si>
     <t>SL. No</t>
   </si>
@@ -194,22 +194,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Add stock adjustment, Edit settings and Remove from list'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Select </t>
     </r>
     <r>
@@ -302,9 +286,6 @@
     <t>Outlets -&gt; SKU-&gt; Actions-&gt; Remove from list</t>
   </si>
   <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
-  </si>
-  <si>
     <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
   </si>
   <si>
@@ -361,22 +342,6 @@
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Check box</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Once click the SKU check box it comes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Clear ,Remove from inventory, Edit par level"</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Check box-&gt;Clear</t>
   </si>
   <si>
@@ -492,64 +457,6 @@
   </si>
   <si>
     <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.It shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Est.value at count, No.of items and Below par'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                    2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Search SKU, All suppliers, Status, Search, Add SKU, Export, SKU, Supplier, UOM, Par level, Last count, Adjustment, Incoming, Received, Est.value and Actions                                                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New stock count and Record adjustment</t>
-    </r>
   </si>
   <si>
     <r>
@@ -712,56 +619,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>Click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> UOM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,it shows "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Activity and Settings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" and once click on the Date </t>
-    </r>
-  </si>
-  <si>
-    <t>Once hit on the date it displayed the Stock count page</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Stock count</t>
   </si>
   <si>
@@ -905,9 +762,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
     </r>
@@ -944,9 +798,6 @@
   </si>
   <si>
     <t>Outlets -&gt; SKU-&gt;New stock count(new)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out</t>
   </si>
   <si>
     <t>Outlets -&gt; SKU &gt;Consumption report</t>
@@ -1377,6 +1228,386 @@
   </si>
   <si>
     <t>It successfully removed from the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Check box-&gt;Move to (new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Move to' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User selects 1 or more items, then opens the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Move to' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dialog </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the SKU check box it comes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Clear ,Remove from inventory, Edit par level, Move to "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upon saving stay on current page and show a toast message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Selected items(s) moved to name"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Add stock adjustment, Edit settings, Move to.. and Remove from list'</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt; Actions-&gt; Move to…(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click "Move to.." Upon saving stay on current page and show a toast </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Item moved to list name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Move to dialog select list dropdown and save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Est.value at count, No.of items and Below par'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                    2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search SKU, All suppliers, Search, Add SKU, Filter, Export, SKU, Supplier, UOM, Par, On hand, Last count, Adjustment, Incoming, Received, Est.value and Actions                                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New stock count, Adjustment and Consumption report</t>
+    </r>
+  </si>
+  <si>
+    <t>View Inventory menu page+B17</t>
+  </si>
+  <si>
+    <t>SKU -&gt;Filter</t>
+  </si>
+  <si>
+    <t>In filter option we can see the "Below par and Starred"                                      1.Once if we click Below par it shows below par level                                        2.Select the Starred it shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Adjustment-&gt;                Transfer out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Adjustment-&gt;                Transfer In(new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once click on the Date it should display selected date result </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Activity : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'All types and All lists dropdwon and Export' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                        Date, Type, Inventory list, UOM, and QTY .if we click Date link it shows details of Stock count amendment and X icon.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Settings</t>
+  </si>
+  <si>
+    <t>Its shows Inventory UOM dropdown and Par level and Save changes</t>
+  </si>
+  <si>
+    <t>it gets displayed as Updated inventory succesfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once hit on the date it displayed the Stock count page and 1.Once if we click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Favourite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it shows only starred list(blue color)The active state of this "Favourite" button is the blue button with yellow star.                                                                                                            2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Move to..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User selects 1 or more items, then opens the 'Move to' dialog select list dropdown and Save .We can close the SKU details page while showing this "Move to" dialog.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UOM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,it shows "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activity and Settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" On top of this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Favourite and Move to.."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Upon saving stay on current page and show a toastr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Item moved to list name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1491,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1515,6 +1746,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1797,24 +2031,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="61.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="61.81640625" customWidth="1"/>
+    <col min="6" max="6" width="52.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +2074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1854,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1863,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1877,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1886,7 +2120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1897,19 +2131,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1920,19 +2154,19 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1943,19 +2177,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1966,19 +2200,19 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1989,19 +2223,19 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2012,19 +2246,19 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2047,7 +2281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2070,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2093,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2116,7 +2350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2130,7 +2364,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>10</v>
@@ -2139,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2153,7 +2387,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -2162,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2176,39 +2410,39 @@
         <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2216,22 +2450,22 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>62</v>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="273.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2241,20 +2475,20 @@
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>28</v>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2265,19 +2499,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2288,19 +2522,19 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2311,19 +2545,19 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2334,19 +2568,19 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2357,19 +2591,15 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2380,19 +2610,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2403,19 +2633,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2426,19 +2656,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2449,19 +2679,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2472,19 +2702,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2495,19 +2725,19 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2518,19 +2748,19 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2541,19 +2771,19 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2564,19 +2794,19 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>56</v>
+        <v>110</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2587,19 +2817,19 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2610,19 +2840,19 @@
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2633,19 +2863,19 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2656,15 +2886,126 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="119" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="F42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C82A0-A27D-4E16-B2C1-6F572B5E84CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA2BF9-B992-4AA7-A679-8ABEF01F4671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6446620-48EC-43BD-B84D-C356FBD04A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA2BF9-B992-4AA7-A679-8ABEF01F4671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
   <si>
     <t>SL. No</t>
   </si>
@@ -194,22 +194,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Add stock adjustment, Edit settings and Remove from list'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Select </t>
     </r>
     <r>
@@ -302,9 +286,6 @@
     <t>Outlets -&gt; SKU-&gt; Actions-&gt; Remove from list</t>
   </si>
   <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
-  </si>
-  <si>
     <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
   </si>
   <si>
@@ -361,22 +342,6 @@
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Check box</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Once click the SKU check box it comes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Clear ,Remove from inventory, Edit par level"</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Check box-&gt;Clear</t>
   </si>
   <si>
@@ -492,64 +457,6 @@
   </si>
   <si>
     <t>Outlets-&gt;SKU-&gt; Actions -&gt; Add stock adjustment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.It shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Est.value at count, No.of items and Below par'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                    2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Search SKU, All suppliers, Status, Search, Add SKU, Export, SKU, Supplier, UOM, Par level, Last count, Adjustment, Incoming, Received, Est.value and Actions                                                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New stock count and Record adjustment</t>
-    </r>
   </si>
   <si>
     <r>
@@ -712,56 +619,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>Click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> UOM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,it shows "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Activity and Settings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" and once click on the Date </t>
-    </r>
-  </si>
-  <si>
-    <t>Once hit on the date it displayed the Stock count page</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Stock count</t>
   </si>
   <si>
@@ -905,9 +762,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer In(new)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">By clicking Record adjustment ,it shows pop up screen </t>
     </r>
@@ -944,9 +798,6 @@
   </si>
   <si>
     <t>Outlets -&gt; SKU-&gt;New stock count(new)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment-&gt;                Transfer out</t>
   </si>
   <si>
     <t>Outlets -&gt; SKU &gt;Consumption report</t>
@@ -1377,6 +1228,386 @@
   </si>
   <si>
     <t>It successfully removed from the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Check box-&gt;Move to (new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Move to' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User selects 1 or more items, then opens the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Move to' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dialog </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the SKU check box it comes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Clear ,Remove from inventory, Edit par level, Move to "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upon saving stay on current page and show a toast message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Selected items(s) moved to name"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Add stock adjustment, Edit settings, Move to.. and Remove from list'</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU-&gt; Actions-&gt; Move to…(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click "Move to.." Upon saving stay on current page and show a toast </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Item moved to list name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Move to dialog select list dropdown and save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Est.value at count, No.of items and Below par'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                    2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search SKU, All suppliers, Search, Add SKU, Filter, Export, SKU, Supplier, UOM, Par, On hand, Last count, Adjustment, Incoming, Received, Est.value and Actions                                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New stock count, Adjustment and Consumption report</t>
+    </r>
+  </si>
+  <si>
+    <t>View Inventory menu page+B17</t>
+  </si>
+  <si>
+    <t>SKU -&gt;Filter</t>
+  </si>
+  <si>
+    <t>In filter option we can see the "Below par and Starred"                                      1.Once if we click Below par it shows below par level                                        2.Select the Starred it shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Adjustment-&gt;                Transfer out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Adjustment-&gt;                Transfer In(new)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once click on the Date it should display selected date result </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Activity : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'All types and All lists dropdwon and Export' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                        Date, Type, Inventory list, UOM, and QTY .if we click Date link it shows details of Stock count amendment and X icon.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt;Settings</t>
+  </si>
+  <si>
+    <t>Its shows Inventory UOM dropdown and Par level and Save changes</t>
+  </si>
+  <si>
+    <t>it gets displayed as Updated inventory succesfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once hit on the date it displayed the Stock count page and 1.Once if we click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Favourite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it shows only starred list(blue color)The active state of this "Favourite" button is the blue button with yellow star.                                                                                                            2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Move to..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User selects 1 or more items, then opens the 'Move to' dialog select list dropdown and Save .We can close the SKU details page while showing this "Move to" dialog.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UOM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,it shows "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activity and Settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" On top of this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Favourite and Move to.."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Upon saving stay on current page and show a toastr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Item moved to list name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1491,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1515,6 +1746,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1797,24 +2031,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="61.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="61.81640625" customWidth="1"/>
+    <col min="6" max="6" width="52.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +2074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1854,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1863,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1877,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -1886,7 +2120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1897,19 +2131,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1920,19 +2154,19 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1943,19 +2177,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1966,19 +2200,19 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1989,19 +2223,19 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2012,19 +2246,19 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2047,7 +2281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2070,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2093,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2116,7 +2350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2130,7 +2364,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>10</v>
@@ -2139,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2153,7 +2387,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -2162,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2176,39 +2410,39 @@
         <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2216,22 +2450,22 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>62</v>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="273.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2241,20 +2475,20 @@
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>28</v>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2265,19 +2499,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2288,19 +2522,19 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2311,19 +2545,19 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2334,19 +2568,19 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2357,19 +2591,15 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2380,19 +2610,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2403,19 +2633,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2426,19 +2656,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2449,19 +2679,19 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2472,19 +2702,19 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2495,19 +2725,19 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2518,19 +2748,19 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2541,19 +2771,19 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2564,19 +2794,19 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>56</v>
+        <v>110</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2587,19 +2817,19 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2610,19 +2840,19 @@
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2633,19 +2863,19 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2656,15 +2886,126 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="119" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="F42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint124\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA2BF9-B992-4AA7-A679-8ABEF01F4671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26260AA3-7A1F-49A0-BA1B-11D51251B016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="119">
   <si>
     <t>SL. No</t>
   </si>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2596,8 +2596,12 @@
       <c r="E24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -2917,7 +2921,9 @@
       <c r="F38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="119" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -2938,7 +2944,9 @@
       <c r="F39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">

--- a/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlets-SKU testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA2BF9-B992-4AA7-A679-8ABEF01F4671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9625D3C8-D50D-4F21-BC4A-B6B7F990FF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <t>SL. No</t>
   </si>
@@ -1137,9 +1137,6 @@
     <t>3.Next to Cancel ,user can click 'Save as Draft' button at the buttom of the screen                                                                                                                                 If user has not entered the quantity for all items, the confirmation step will ask whether to "Save with blank fields automatically filled" in with '0'</t>
   </si>
   <si>
-    <t xml:space="preserve">The inventory UOM next to each item’s quantity field will be hyperlinked (in blue) and there is a down chevron symbol next to it. The label and the chevron are clickable as a button.                                     *Once click the UOM,it shows list and qty field next to each UOM and click Save </t>
-  </si>
-  <si>
     <t>Once edit UOM and qty and Save it gets dispalyed the updated result</t>
   </si>
   <si>
@@ -1608,6 +1605,10 @@
       </rPr>
       <t xml:space="preserve">                        </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory UOM next to each item’s quantity field will be hyperlinked (in blue) and there is a down chevron symbol next to it. The label and the chevron are clickable as a button.                                    
+ *Once click the UOM,it shows list and qty field next to each UOM and click Save </t>
   </si>
 </sst>
 </file>
@@ -2033,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2088,7 +2089,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -2223,13 +2224,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
@@ -2246,13 +2247,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
@@ -2430,10 +2431,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>15</v>
@@ -2450,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>31</v>
@@ -2502,7 +2503,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>15</v>
@@ -2591,10 +2592,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
@@ -2728,10 +2729,10 @@
         <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
@@ -2748,7 +2749,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>73</v>
@@ -2771,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>74</v>
@@ -2794,7 +2795,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>72</v>
@@ -2820,7 +2821,7 @@
         <v>47</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>50</v>
@@ -2846,7 +2847,7 @@
         <v>53</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>11</v>
@@ -2869,7 +2870,7 @@
         <v>55</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>11</v>
@@ -2909,15 +2910,17 @@
         <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="119" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -2933,12 +2936,14 @@
         <v>66</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -2951,13 +2956,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>11</v>
@@ -2974,13 +2979,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>11</v>
